--- a/数值表7.10/游戏相关设计/问题修改.xlsx
+++ b/数值表7.10/游戏相关设计/问题修改.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总问题表" sheetId="1" r:id="rId1"/>
     <sheet name="战斗相关" sheetId="2" r:id="rId2"/>
+    <sheet name="优化" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>支援战斗补齐。</t>
     <rPh sb="0" eb="1">
@@ -3100,6 +3101,1022 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>yin'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵眼没人的情况下，怪会无视阵型保护机制。</t>
+    <rPh sb="0" eb="1">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhen'x</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bao'h</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的npc对话问题：理想状态是点击npc有对话。如果有任务将触发任务。有功能触发功能。都有加选项。</t>
+    <rPh sb="0" eb="1">
+      <t>ren'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>li'xiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>s</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>you</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ren'w</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>you</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>gong'n</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>dou'you</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xuan'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加传送点类似的地方：玩家要切换地图必需先到传送点。</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan'song</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei's</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di'fang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bi'xuan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chuan's</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动寻路优化：如果角色在npc地图，则直接跑到npc处。。如果不在npc地图，则先跑到传送点，传送到npc地图，然后跑到npc处。而不是跳地图。</t>
+    <rPh sb="0" eb="1">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xun'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>z</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>z</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>di't</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>chuan'song</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>cuan'song</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>di'tu</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ran'h</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>er</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>s</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前游戏中玩家追求点不明确。。需要明确玩家每天，各个阶段的追求点。。。</t>
+    <rPh sb="0" eb="1">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhui'q</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ge'ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jie'duan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>d</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhui'q</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前游戏中缺少玩家需要追求的东西。。。在下个阶段或项目中这个需要提前提出。。。以及我们要做的游戏优势点。</t>
+    <rPh sb="0" eb="1">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que'shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu'q</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dong'x</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>z</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jie'd</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xiang'm</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ti'chu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>wo'm</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>d</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>you'shi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前游戏底子，认为一个扩展方向也许不错。做类似沙盒游戏的体验。。。比如做一些支线任务啊等等。、</t>
+    <rPh sb="0" eb="1">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'zi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kuo'z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang'x</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ye'x</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cuo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>lie'si</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>sha'he</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>d</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bi'r</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhi'xian</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ren'w</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>a</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>deng'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加游戏的成就感。。。玩家做什么？或者达成了一个什么目标是有成就感的？，当前是没有的。</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>s'm</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>huo'z</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>da'cheng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>l</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shen'm</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>s</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>you</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>cheng'j</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>d</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>s</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗的优化。。。。当前战斗太过单一。。需要做出战斗的不同需求。。。。简单的说，现在上那个武将都一样。。没有什么武将间的搭配性。。即时说做连造。但当前连招并没有做出搭配感觉。。。这是需要考虑的。。或者说我为什么换个武将的连招。。</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhan'd</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dan'yi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zuo'chu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhan'd</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>d</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xu'q</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>jian'dan</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>d</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xian'z</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>na'ge</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>wu'j</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yi'y</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>s'm</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>wu'j</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>d</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>da'p</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ji's</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>lian'zao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>lian'zhao</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>zuo'c</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>da'p</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>gan'j</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>s</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>kao'l</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>d</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>huo'z</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>wei's'm</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>wu'j</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>d</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>lian'zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我认为应当扩展战斗前的策略设计。。原因：战斗中策略我们其实操作性太低了。且乐趣性并不是很高。。。而站前策略，代表玩家的思考。搭配。。。应当去扩展。</t>
+    <rPh sb="0" eb="1">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ren'w</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying'd</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuo'zhan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhan'd</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ce'l</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yuan'yin</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhan'd</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhaong</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ce'l</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>men</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>qi's</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>cao'z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>tai'di</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>l</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>lie'q</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>s</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>er</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ce'l</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>dai'b</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>d</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>si'k</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>da'p</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ying'd</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>kuo'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗后奖励的多样化。当前的奖励中，缺少那种专属奖励。。比如说，我加入刺客工会，会获得匕首。而加入战士工会，会获得双手斧头。。这些获取途径唯一。。然后匕首，和双手斧头，可能会有一些特殊作用，影响到战斗。</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duo'yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>que's</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>na'zh</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhuan's</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bi'r</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>jia'ru</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ci'k</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>huo'd</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>bi'sh</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>er</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jia'ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhan's</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>gong'h</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>huo'd</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>shuang's</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>fu'tou</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhe'x</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>tu'j</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>wei'yi</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ran'h</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>bi's</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>he</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>shuang's</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>fu'tou</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ke'nng</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>you</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>t'shu</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>zuo'yong</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ying'xiang</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>zhan'd</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3468,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H101"/>
+  <dimension ref="B2:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4191,6 +5208,14 @@
         <v>92</v>
       </c>
     </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B103">
+        <v>89</v>
+      </c>
+      <c r="C103" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4199,10 +5224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C17"/>
+  <dimension ref="B5:C19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4302,8 +5327,109 @@
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/数值表7.10/游戏相关设计/问题修改.xlsx
+++ b/数值表7.10/游戏相关设计/问题修改.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总问题表" sheetId="1" r:id="rId1"/>
     <sheet name="战斗相关" sheetId="2" r:id="rId2"/>
     <sheet name="优化" sheetId="3" r:id="rId3"/>
+    <sheet name="操作优化与显示优化" sheetId="4" r:id="rId4"/>
+    <sheet name="9.5会议" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
   <si>
     <t>支援战斗补齐。</t>
     <rPh sb="0" eb="1">
@@ -4120,12 +4122,2142 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>开始的教程没有消失</t>
+    <rPh sb="0" eb="1">
+      <t>kai's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao'c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务与功能npc头上有标识（当前任务叹号时有时无）</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'n</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou'shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dagn'q</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tan'h</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>you</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的接取与提交，可以通过点击相关npc进行。</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'g</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jin'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无任务无功能的npc点击有对话。</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'n</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dui'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动也可考虑放在npc身上做。这样界面图标会大大减少。</t>
+    <rPh sb="0" eb="1">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kao'l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>z</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen's</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhe'yang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie'm</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tu'biao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>da'da</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jian'shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可考虑部分系统功能变为需要寻找npc开启。如深渊等等。甚至做邮箱。</t>
+    <rPh sb="0" eb="1">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kao'l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'f</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'n</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bian'w</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xun'z</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>kai'q</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>deng'd</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shen'z</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>you'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少角色的标识性，如标注职业。需要在任何角色会出现的地方标识。如星阵，技能等界面。</t>
+    <rPh sb="0" eb="1">
+      <t>que'hsao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao'zhu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>z</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ren'h</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>chu'x</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>d</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xing'zhen</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊与炎界远征的pve考验性质不明，需要明确这2个系统的设计目标，并优化玩法</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan'z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kao'yan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xing'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ming'q</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>d</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>wan'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里说一下。。当前游戏中的pve内容有：主线任务，每日任务，悬赏任务。聚金宝箱，深渊，炎界。世界boss。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中vip0时每日任务每天重复30次。聚金宝箱9次，炎界远征3次，深渊3次。。这些重复性内容设计没有挑战，也无法指引玩家的某些行为，策略等等。所以比较无味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次重复的设计目的是什么？如果仅仅是拖延时间的话，但有些系统，是可以一键刷的，。。。简单的说，系统设计目标不明确，无法起到引导玩家游戏行为的作用。</t>
+    <rPh sb="0" eb="1">
+      <t>duo'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mu'd</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>s</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>s'm</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin'jin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>s</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tuo'yan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>d</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>s</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yi'jian</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shua</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>jian'd</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>d</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ming'q</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>wu'f</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>yin'dao</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>xing'w</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>d</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多pve玩法系统设计目标不明确。这个如果修改的话，太耗时间。但是这个是我们游戏的问题。需要今后避免。</t>
+    <rPh sb="0" eb="1">
+      <t>hen'duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'f</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mu'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目标不明确会有什么问题:最直观的感受，就是玩家玩这个系统的时候。感觉很迷茫，不知道发生了什么，就结束了。。。</t>
+    <rPh sb="0" eb="1">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ming'q</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sen'm</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi'guan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>d</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gan's</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>s</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zh'ge</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>d</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>shi'h</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>gan'j</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zhi'd</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>l</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>s'm</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的说。。游戏中现在pve玩法系统很乱，，似乎是很多其他游戏系统揉在一起的。。又没有其他游戏中该系统的精髓，，，感觉很乱，四不像。</t>
+    <rPh sb="0" eb="1">
+      <t>jian'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hzong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian'z</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wan'f</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>luan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>si'hu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>s</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hen'duo</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>rou</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yi'q'd</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>you</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>xi'otng</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>d</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>jing'sui</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>gan'j</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>hen</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>luan</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>si'bu'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例具体说明</t>
+    <rPh sb="0" eb="1">
+      <t>ju'li'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuo'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的深渊做法：设计很多层难度递增的关卡，让玩家不断挑战。每挑战到一定层数有一定的奖励，且要明确某个关卡的奖励。。玩家不需要打过去的关卡（所以有些深渊永远只显示玩家的最高层。），每天可以领1次之前关卡的奖励。这个设计更多是为了在培养中需要用到重复材料。有些游戏没有重复领取奖励的设定）。</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo'f</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hen'duo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nan'd</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di'z</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>d</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>tiao'zhan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>yi'ding</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ceng's</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>you</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yi'ding</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>d</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ming'q</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>mou</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>d</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>da</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>guo'q</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>d</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>suo'y</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>yon</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>xian's</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>d</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>gao'ceng</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>mei'tian</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ling</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>d</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>geng</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>s</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>wei'l</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>z</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>pei'y</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>chogn'fu</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>cai'l</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ling'q</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>d</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>she'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊系统：深渊玩法与精英副本相结合。</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen'yuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wan'f</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jing'y</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的精英副本做法：设计多难度低挑战关卡，设关卡等级限制。。关卡掉落物品为游戏中较为珍贵的物品，（多为角色碎片）。。需要明确标注每关的掉落物品。。每关可重复挑战刷新。，，且常见挑战需要消耗门票。或体力。，。目的是让玩家有选择的刷精英副本。</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo'f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nan'd</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>she</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>deng'j</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xian'z</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>diao'l</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>wu'p</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jiao'w</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zhen'gui</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>d</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>wu'p</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>duo'w</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>sui'p</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ming'q</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>biao'zhu</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>d</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>diao'l</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>wu'p</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>chong'f</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>shua'x</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>chang'jian</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>xiao'h</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>men'piao</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ti'li</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>mu'd</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>s</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>you</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>d</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>shua</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>jing'ying</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>fu'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的深渊：</t>
+    <rPh sb="0" eb="1">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>men</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1：玩家不断挑战新的关卡的同时，，可以刷曾经挑战的某1关卡，如果没有vip的话。玩家要对之前所有关卡，每个关卡在打3遍。。设计目的是什么？。。而vip的话，要点3次1键扫荡，或每个关卡点3次扫荡。。</t>
+    <rPh sb="0" eb="1">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ka</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tong'shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shua</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ceng'j</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>d</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>mou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>d</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>zhi'q</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>da</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>mu'd</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>s</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>s'm</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>er</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>d</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>sao'd</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>guan'k</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>sao'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题2：奖励只有该层奖励。而无具体的挑战目标。</t>
+    <rPh sb="0" eb="1">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>er</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>d</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>mu'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题3：如果是精英副本的模式，那么其没有消耗，0成本的刷副本意义是什么？</t>
+    <rPh sb="0" eb="1">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>s</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'y</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mo's</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>na'm</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>cheng'b</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>d</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shau</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yi'y</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>s</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>s'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等等</t>
+    <rPh sb="0" eb="1">
+      <t>deng'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养系统的问题</t>
+    <rPh sb="0" eb="1">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之“系统设计目标不明确”是我们游戏的问题。。。设计初没有意识到，现在回头分析是有问题的。。。同样的问题在炎界远征，与金币副本包括任务都有。。。</t>
+    <rPh sb="0" eb="1">
+      <t>zong'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ming'q</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>s</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wo'm</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>d</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yi's</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xian'z</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>hui'tou</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen'x</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>s</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>you</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>d</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>z</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>yuan'z</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>jin'b</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>bao'k</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ren'w</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接感受的就是pve玩法不好玩。。。。每天机械性重复。没有游戏引导性。</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gan's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiu's</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan'f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>mei'tian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji'xie</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chong'f</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yin'dao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养优先度的问题</t>
+    <rPh sb="0" eb="1">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前的所有培养给玩家的培养感觉都是平行培养。没有1项是重点培养的。</t>
+    <rPh sb="0" eb="1">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gan'j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>s</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ping'xing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>s</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhong'dian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养线的问题</t>
+    <rPh sb="0" eb="1">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日开会内容</t>
+    <rPh sb="0" eb="1">
+      <t>ming'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，玩家在游戏中主要玩的目标是什么</t>
+    <rPh sb="2" eb="3">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>s</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>s'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，明确主要游戏目标后讨论：玩家各个阶段的游戏目标，或者培养目标规划</t>
+    <rPh sb="2" eb="3">
+      <t>ming'q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tao'l</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ge'ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jie'duan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>d</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>huo'z</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gui'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，活动奖励的奖励方向。。</t>
+    <rPh sb="2" eb="3">
+      <t>huo'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fagn'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，新的pvp玩法提案。</t>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wan'f</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，各个层次的玩家的游戏生态目标</t>
+    <rPh sb="2" eb="3">
+      <t>ge'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ceng'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sheng't</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mu'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议备案</t>
+    <rPh sb="0" eb="1">
+      <t>hui'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议参与人</t>
+    <rPh sb="0" eb="1">
+      <t>hui'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，当前游戏pve玩法，重复操作过多。没有趣味性、如何优化</t>
+    <rPh sb="2" eb="3">
+      <t>dagn'q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan'f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chong'f</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cao'z</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>guo'd</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qu'w</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ru'h</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议时间</t>
+    <rPh sb="0" eb="1">
+      <t>hui'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14：00-18：30，19：30-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，当前游戏中反常规的体验优化。从操作与显示2方面优化。</t>
+    <rPh sb="2" eb="3">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chang'ui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cao'z</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian's</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fang'm</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿军，志成，张毅，陈林坤，Gary，邹浩然</t>
+    <rPh sb="3" eb="4">
+      <t>zhi'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhang'yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lin'kun</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hao'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议目标</t>
+    <rPh sb="0" eb="1">
+      <t>hui'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过会议讨论的结果，进行1个月的实施后，可以提升我们游戏的付费率。</t>
+    <rPh sb="0" eb="1">
+      <t>tong'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tao'l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>d</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi's</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wo'm</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>d</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fu'f</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4161,6 +6293,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4194,7 +6334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4208,6 +6348,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4485,10 +6626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H103"/>
+  <dimension ref="B2:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5216,6 +7357,14 @@
         <v>93</v>
       </c>
     </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B105">
+        <v>90</v>
+      </c>
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5226,8 +7375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5346,7 +7495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5436,4 +7585,268 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="68.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>